--- a/docs/resources/Dictionary_testNetwork.xlsx
+++ b/docs/resources/Dictionary_testNetwork.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA10ED1-842A-405A-A44B-4F3BF0ED3011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E0291D-0A1C-401F-8DE7-2A64BE49F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="310">
   <si>
     <t>label</t>
   </si>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t>height_</t>
+  </si>
+  <si>
+    <t>variable</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1396,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3568,7 +3571,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3593,7 +3596,7 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
